--- a/src/main/Frc2023AprilTagLocations.xlsx
+++ b/src/main/Frc2023AprilTagLocations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\Trc492\Frc2023ChargedUp\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CB45636-3E47-42CA-AABD-C54C592E9F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8221425-7F69-40B7-9832-2DC00A440F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11918" yWindow="143" windowWidth="16282" windowHeight="15330" xr2:uid="{4F9CABB4-A4B7-4346-A712-C8DF96D888BA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{4F9CABB4-A4B7-4346-A712-C8DF96D888BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Heading</t>
   </si>
@@ -55,6 +46,24 @@
   </si>
   <si>
     <t>inches</t>
+  </si>
+  <si>
+    <t>x (meters)</t>
+  </si>
+  <si>
+    <t>y (meters)</t>
+  </si>
+  <si>
+    <t>z (meters)</t>
+  </si>
+  <si>
+    <t>x (inches)</t>
+  </si>
+  <si>
+    <t>y (inches)</t>
+  </si>
+  <si>
+    <t>z (inches)</t>
   </si>
 </sst>
 </file>
@@ -98,9 +107,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,42 +435,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -489,7 +504,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3">
@@ -522,7 +537,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4">
@@ -555,7 +570,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5">
@@ -588,7 +603,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6">
@@ -621,7 +636,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7">
@@ -654,7 +669,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8">
@@ -687,7 +702,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9">
@@ -720,8 +735,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>5</v>
+      <c r="A11" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B11">
         <v>16.54175</v>
@@ -729,8 +744,8 @@
       <c r="C11">
         <v>8.0137</v>
       </c>
-      <c r="F11" t="s">
-        <v>7</v>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="G11">
         <f>C11*1000/25.4</f>
@@ -742,8 +757,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="F12" t="s">
-        <v>6</v>
+      <c r="F12" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="G12">
         <f>G11/12</f>
@@ -755,8 +770,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="F13" t="s">
-        <v>8</v>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G13">
         <f>INT(G12)</f>
@@ -768,8 +783,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="F14" t="s">
-        <v>9</v>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="G14">
         <f>(G12-G13)*12</f>
@@ -782,6 +797,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>